--- a/Outreach Program Cohort Schedules- Revised.xlsx
+++ b/Outreach Program Cohort Schedules- Revised.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascalv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascalv\Documents\GitHub\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
   <si>
     <t>Teacher Education</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Spring 2022</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -980,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1722,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1739,7 @@
     <col min="4" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>44</v>
       </c>
@@ -1752,8 +1755,11 @@
       <c r="E1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
